--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T12:44:22+00:00</t>
+    <t>2024-03-28T13:28:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -971,7 +971,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R288-TypeProfession/FHIR/TRE-R288-TypeProfession"/&gt;
-  &lt;code value="PS"/&gt;
+  &lt;code value="P01"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
   <si>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T13:28:20+00:00</t>
+    <t>2024-03-28T16:20:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -817,7 +817,7 @@
     <t>Assist in searching for appropriate content.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:useContext.code}
+    <t xml:space="preserve">pattern:useContext.code}
 </t>
   </si>
   <si>
@@ -2016,7 +2016,7 @@
     <col min="25" max="25" width="86.3125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="96.27734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="25.05859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="188.67578125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T16:20:19+00:00</t>
+    <t>2024-03-28T17:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -817,7 +817,7 @@
     <t>Assist in searching for appropriate content.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:useContext.code}
+    <t xml:space="preserve">value:useContext.code}
 </t>
   </si>
   <si>
@@ -891,7 +891,10 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/ValueSet/ror-usage-context-type-vs</t>
+    <t>A code that specifies a type of context being specified by a usage context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/usage-context-type</t>
   </si>
   <si>
     <t>UsageContext.code</t>
@@ -2016,7 +2019,7 @@
     <col min="25" max="25" width="86.3125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="96.27734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.05859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="23.30078125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="188.67578125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -5277,9 +5280,11 @@
       <c r="X28" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y28" s="2"/>
+      <c r="Y28" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5297,7 +5302,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5315,7 +5320,7 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5324,15 +5329,15 @@
         <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5355,13 +5360,13 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5388,19 +5393,19 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
@@ -5410,7 +5415,7 @@
         <v>141</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5442,13 +5447,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>80</v>
@@ -5470,13 +5475,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5507,7 +5512,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5525,7 +5530,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -5557,13 +5562,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>80</v>
@@ -5588,7 +5593,7 @@
         <v>252</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>254</v>
@@ -5678,7 +5683,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>264</v>
@@ -5793,7 +5798,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>269</v>
@@ -5910,7 +5915,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>273</v>
@@ -5956,7 +5961,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -5973,9 +5978,11 @@
       <c r="X34" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y34" s="2"/>
+      <c r="Y34" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5993,7 +6000,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -6011,7 +6018,7 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6020,15 +6027,15 @@
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6051,13 +6058,13 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6084,19 +6091,19 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
@@ -6106,7 +6113,7 @@
         <v>141</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -6138,13 +6145,13 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>80</v>
@@ -6166,13 +6173,13 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6203,7 +6210,7 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6221,7 +6228,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6253,13 +6260,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>80</v>
@@ -6284,7 +6291,7 @@
         <v>252</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>254</v>
@@ -6374,7 +6381,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>264</v>
@@ -6489,7 +6496,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>269</v>
@@ -6606,7 +6613,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>273</v>
@@ -6652,7 +6659,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -6669,9 +6676,11 @@
       <c r="X40" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y40" s="2"/>
+      <c r="Y40" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6689,7 +6698,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6707,7 +6716,7 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6716,15 +6725,15 @@
         <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6747,13 +6756,13 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6780,19 +6789,19 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
@@ -6802,7 +6811,7 @@
         <v>141</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -6834,13 +6843,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
@@ -6862,13 +6871,13 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6899,7 +6908,7 @@
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -6917,7 +6926,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>87</v>
@@ -6949,10 +6958,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6975,16 +6984,16 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7013,10 +7022,10 @@
         <v>279</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7034,7 +7043,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7049,7 +7058,7 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>173</v>
@@ -7061,15 +7070,15 @@
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7095,13 +7104,13 @@
         <v>245</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7151,7 +7160,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7166,13 +7175,13 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>165</v>
@@ -7183,14 +7192,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7212,16 +7221,16 @@
         <v>245</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7270,7 +7279,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7285,7 +7294,7 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>173</v>
@@ -7302,10 +7311,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7328,16 +7337,16 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7387,7 +7396,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7402,10 +7411,10 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7419,10 +7428,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7445,19 +7454,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7506,7 +7515,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7521,10 +7530,10 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7538,10 +7547,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7564,19 +7573,19 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7625,7 +7634,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7637,10 +7646,10 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>173</v>
@@ -7652,15 +7661,15 @@
         <v>165</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7686,16 +7695,16 @@
         <v>274</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>277</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7720,13 +7729,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7744,7 +7753,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7762,7 +7771,7 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7771,15 +7780,15 @@
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7802,16 +7811,16 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7861,7 +7870,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7870,16 +7879,16 @@
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7893,10 +7902,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8008,10 +8017,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8125,14 +8134,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8154,10 +8163,10 @@
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>138</v>
@@ -8212,7 +8221,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8244,10 +8253,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8273,16 +8282,16 @@
         <v>168</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8331,7 +8340,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>87</v>
@@ -8349,7 +8358,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8363,10 +8372,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8392,16 +8401,16 @@
         <v>103</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8450,7 +8459,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8468,7 +8477,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8482,10 +8491,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8511,16 +8520,16 @@
         <v>274</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8545,13 +8554,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8569,7 +8578,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8578,7 +8587,7 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
@@ -8587,7 +8596,7 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8596,19 +8605,19 @@
         <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8630,16 +8639,16 @@
         <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8688,7 +8697,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8706,7 +8715,7 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8720,10 +8729,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8749,13 +8758,13 @@
         <v>168</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8805,7 +8814,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8837,10 +8846,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8866,16 +8875,16 @@
         <v>110</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8903,10 +8912,10 @@
         <v>199</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8924,7 +8933,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>87</v>
@@ -8942,7 +8951,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8956,10 +8965,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8982,19 +8991,19 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9043,7 +9052,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9055,13 +9064,13 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9075,10 +9084,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9190,10 +9199,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9307,14 +9316,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9336,10 +9345,10 @@
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>138</v>
@@ -9394,7 +9403,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9426,10 +9435,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9455,13 +9464,13 @@
         <v>168</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9511,7 +9520,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>87</v>
@@ -9529,7 +9538,7 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9543,10 +9552,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9572,13 +9581,13 @@
         <v>110</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9607,10 +9616,10 @@
         <v>199</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9628,7 +9637,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>87</v>
@@ -9646,7 +9655,7 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9660,10 +9669,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9686,13 +9695,13 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9719,13 +9728,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9743,7 +9752,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -9752,7 +9761,7 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>100</v>
@@ -9761,7 +9770,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9775,10 +9784,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9804,13 +9813,13 @@
         <v>110</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9839,10 +9848,10 @@
         <v>199</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -9860,7 +9869,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9869,7 +9878,7 @@
         <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>100</v>
@@ -9878,7 +9887,7 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9892,10 +9901,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9921,20 +9930,20 @@
         <v>206</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>80</v>
@@ -9979,7 +9988,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9988,7 +9997,7 @@
         <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>100</v>
@@ -9997,7 +10006,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10011,10 +10020,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10040,76 +10049,76 @@
         <v>206</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q69" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q69" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF69" t="s" s="2">
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>100</v>
@@ -10118,7 +10127,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10132,10 +10141,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10161,16 +10170,16 @@
         <v>206</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10219,7 +10228,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10228,7 +10237,7 @@
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>100</v>
@@ -10237,7 +10246,7 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10251,10 +10260,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10277,16 +10286,16 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10336,7 +10345,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10345,7 +10354,7 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>100</v>
@@ -10354,7 +10363,7 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10368,10 +10377,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10394,16 +10403,16 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10453,7 +10462,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10462,7 +10471,7 @@
         <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>100</v>
@@ -10471,7 +10480,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10485,10 +10494,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10511,16 +10520,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10570,7 +10579,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10579,7 +10588,7 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>100</v>
@@ -10588,7 +10597,7 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10602,10 +10611,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10717,10 +10726,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10834,14 +10843,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10863,10 +10872,10 @@
         <v>135</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>138</v>
@@ -10921,7 +10930,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10953,10 +10962,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10979,16 +10988,16 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11014,13 +11023,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11038,7 +11047,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>87</v>
@@ -11056,7 +11065,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11070,10 +11079,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11099,20 +11108,20 @@
         <v>206</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q78" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>80</v>
@@ -11157,7 +11166,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11175,7 +11184,7 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11189,10 +11198,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11215,19 +11224,19 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11276,7 +11285,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11285,7 +11294,7 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>100</v>
@@ -11294,7 +11303,7 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11308,10 +11317,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11423,10 +11432,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11540,14 +11549,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11569,10 +11578,10 @@
         <v>135</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>138</v>
@@ -11627,7 +11636,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11659,10 +11668,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11685,16 +11694,16 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11720,13 +11729,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -11744,7 +11753,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>87</v>
@@ -11762,7 +11771,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11776,10 +11785,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11805,16 +11814,16 @@
         <v>81</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -11863,7 +11872,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11872,7 +11881,7 @@
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>80</v>
@@ -11881,7 +11890,7 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T17:00:10+00:00</t>
+    <t>2024-03-28T17:14:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -827,18 +827,6 @@
     <t>Definition.useContext</t>
   </si>
   <si>
-    <t>Questionnaire.useContext:catEG</t>
-  </si>
-  <si>
-    <t>catEG</t>
-  </si>
-  <si>
-    <t>Contexte d'usage de la fiche de consignes de saisie afin de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext:catEG.id</t>
-  </si>
-  <si>
     <t>Questionnaire.useContext.id</t>
   </si>
   <si>
@@ -851,9 +839,6 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Questionnaire.useContext:catEG.extension</t>
-  </si>
-  <si>
     <t>Questionnaire.useContext.extension</t>
   </si>
   <si>
@@ -861,9 +846,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext:catEG.code</t>
   </si>
   <si>
     <t>Questionnaire.useContext.code</t>
@@ -880,6 +862,64 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/ValueSet/ror-usage-context-type-vs</t>
+  </si>
+  <si>
+    <t>UsageContext.code</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext.value[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+QuantityRangeReference(PlanDefinition|ResearchStudy|InsurancePlan|HealthcareService|Group|Location|Organization)</t>
+  </si>
+  <si>
+    <t>Value that defines the context</t>
+  </si>
+  <si>
+    <t>A value that defines the context specified in this context of use. The interpretation of the value is defined by the code.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A code that defines the specific value for the context being specified.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/use-context</t>
+  </si>
+  <si>
+    <t>UsageContext.value[x]</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catEG</t>
+  </si>
+  <si>
+    <t>catEG</t>
+  </si>
+  <si>
+    <t>Contexte d'usage de la fiche de consignes de saisie afin de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catEG.id</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catEG.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext:catEG.code</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -888,54 +928,17 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A code that specifies a type of context being specified by a usage context.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/usage-context-type</t>
   </si>
   <si>
-    <t>UsageContext.code</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
     <t>Questionnaire.useContext:catEG.value[x]</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext.value[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-QuantityRangeReference(PlanDefinition|ResearchStudy|InsurancePlan|HealthcareService|Group|Location|Organization)</t>
-  </si>
-  <si>
-    <t>Value that defines the context</t>
-  </si>
-  <si>
-    <t>A value that defines the context specified in this context of use. The interpretation of the value is defined by the code.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code that defines the specific value for the context being specified.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/use-context</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>UsageContext.value[x]</t>
   </si>
   <si>
     <t>Questionnaire.useContext:catEG.value[x]:valueCodeableConcept</t>
@@ -1983,7 +1986,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO84"/>
+  <dimension ref="A1:AO88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4867,20 +4870,18 @@
         <v>260</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4889,23 +4890,19 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4953,25 +4950,25 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4985,21 +4982,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -5011,15 +5008,17 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5056,37 +5055,37 @@
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5100,21 +5099,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5123,19 +5122,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>270</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5161,49 +5160,47 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>101</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5212,15 +5209,15 @@
         <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5243,17 +5240,15 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5263,7 +5258,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5278,13 +5273,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5302,7 +5297,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5320,7 +5315,7 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5329,7 +5324,7 @@
         <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -5337,9 +5332,11 @@
         <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5348,7 +5345,7 @@
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5360,16 +5357,20 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5393,35 +5394,37 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>99</v>
@@ -5430,10 +5433,10 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5447,14 +5450,12 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5466,22 +5467,22 @@
         <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5508,11 +5509,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5530,19 +5533,19 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5562,16 +5565,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5587,23 +5588,21 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>302</v>
+        <v>136</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5639,19 +5638,19 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5663,13 +5662,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5683,10 +5682,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5694,7 +5693,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>87</v>
@@ -5706,18 +5705,20 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5727,7 +5728,7 @@
         <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>80</v>
@@ -5742,13 +5743,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5766,25 +5767,25 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5793,26 +5794,26 @@
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5821,20 +5822,18 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5859,23 +5858,21 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5883,25 +5880,25 @@
         <v>141</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5915,24 +5912,26 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
@@ -5941,17 +5940,15 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5961,7 +5958,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -5976,13 +5973,11 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6000,7 +5995,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -6018,7 +6013,7 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6027,26 +6022,28 @@
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6058,16 +6055,20 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6091,35 +6092,37 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>99</v>
@@ -6128,10 +6131,10 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6145,14 +6148,12 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6164,22 +6165,22 @@
         <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6206,11 +6207,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6228,19 +6231,19 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6260,16 +6263,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6285,23 +6286,21 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>136</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6337,19 +6336,19 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6361,13 +6360,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6381,10 +6380,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6392,7 +6391,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -6404,18 +6403,20 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6425,7 +6426,7 @@
         <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>80</v>
@@ -6440,13 +6441,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6464,25 +6465,25 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6491,26 +6492,26 @@
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6519,20 +6520,18 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6557,23 +6556,21 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6581,25 +6578,25 @@
         <v>141</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6613,24 +6610,26 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6639,17 +6638,15 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6659,7 +6656,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -6674,13 +6671,11 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6698,7 +6693,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6716,7 +6711,7 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6725,26 +6720,28 @@
         <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6756,16 +6753,20 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6789,35 +6790,37 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>99</v>
@@ -6826,10 +6829,10 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6843,14 +6846,12 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6862,22 +6863,22 @@
         <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6904,11 +6905,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -6926,19 +6929,19 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6958,14 +6961,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6981,19 +6984,19 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>297</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7019,31 +7022,31 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7055,13 +7058,13 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -7070,15 +7073,15 @@
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7086,7 +7089,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
@@ -7098,19 +7101,19 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7121,7 +7124,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7136,13 +7139,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7160,10 +7163,10 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>87</v>
@@ -7175,35 +7178,35 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>87</v>
@@ -7215,23 +7218,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7255,34 +7254,32 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>87</v>
@@ -7294,16 +7291,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7311,12 +7308,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7334,20 +7333,18 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7372,13 +7369,11 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7396,10 +7391,10 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>87</v>
@@ -7411,16 +7406,16 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7428,10 +7423,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7442,32 +7437,30 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7491,13 +7484,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7515,13 +7508,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
@@ -7530,27 +7523,27 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>357</v>
+        <v>173</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7564,29 +7557,27 @@
         <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7634,7 +7625,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7646,41 +7637,41 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>165</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7689,22 +7680,22 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7729,13 +7720,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7753,13 +7744,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
@@ -7768,27 +7759,27 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>173</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7799,7 +7790,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>88</v>
@@ -7811,16 +7802,16 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7870,31 +7861,31 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>379</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -7902,10 +7893,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7919,7 +7910,7 @@
         <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
@@ -7928,16 +7919,20 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7985,7 +7980,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7994,22 +7989,22 @@
         <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>108</v>
+        <v>358</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8017,44 +8012,46 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>136</v>
+        <v>361</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8090,89 +8087,89 @@
         <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>143</v>
+        <v>365</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>147</v>
+        <v>371</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8197,13 +8194,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8221,7 +8218,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8233,13 +8230,13 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>101</v>
+        <v>374</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8248,15 +8245,15 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8264,13 +8261,13 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8279,20 +8276,18 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>168</v>
+        <v>376</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8340,25 +8335,25 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>380</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>381</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8372,10 +8367,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8389,7 +8384,7 @@
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
@@ -8398,20 +8393,16 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8459,7 +8450,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>395</v>
+        <v>263</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8468,16 +8459,16 @@
         <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>400</v>
+        <v>108</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8491,21 +8482,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8517,20 +8508,18 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>274</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>402</v>
+        <v>136</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>403</v>
+        <v>265</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8554,31 +8543,31 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>401</v>
+        <v>266</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8587,16 +8576,16 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>379</v>
+        <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>373</v>
+        <v>101</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8605,50 +8594,50 @@
         <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>411</v>
+        <v>147</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8697,25 +8686,25 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>412</v>
+        <v>101</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8729,10 +8718,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8740,7 +8729,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>87</v>
@@ -8758,15 +8747,17 @@
         <v>168</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8814,10 +8805,10 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>87</v>
@@ -8832,7 +8823,7 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>250</v>
+        <v>395</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8846,10 +8837,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8857,13 +8848,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
@@ -8872,19 +8863,19 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8909,13 +8900,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8933,10 +8924,10 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>87</v>
@@ -8951,7 +8942,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8965,10 +8956,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8979,31 +8970,31 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>375</v>
+        <v>268</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9028,13 +9019,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -9052,7 +9043,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9061,16 +9052,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>380</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>430</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9079,19 +9070,19 @@
         <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9113,13 +9104,17 @@
         <v>168</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>265</v>
+        <v>409</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9167,7 +9162,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>267</v>
+        <v>407</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9176,16 +9171,16 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>108</v>
+        <v>413</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9199,21 +9194,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9225,16 +9220,16 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>136</v>
+        <v>415</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>270</v>
+        <v>416</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>138</v>
+        <v>417</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9272,37 +9267,37 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>271</v>
+        <v>414</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9316,45 +9311,45 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>138</v>
+        <v>421</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>147</v>
+        <v>422</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9379,13 +9374,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9403,25 +9398,25 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9435,10 +9430,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9446,33 +9441,35 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>168</v>
+        <v>376</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9520,25 +9517,25 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>431</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9552,10 +9549,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9563,7 +9560,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -9578,17 +9575,15 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>439</v>
+        <v>261</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9613,13 +9608,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9637,25 +9632,25 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>438</v>
+        <v>263</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>424</v>
+        <v>108</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9669,21 +9664,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9695,15 +9690,17 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>445</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>446</v>
+        <v>136</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9728,49 +9725,49 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>444</v>
+        <v>266</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>450</v>
+        <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>424</v>
+        <v>101</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9784,44 +9781,46 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9845,13 +9844,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -9869,25 +9868,25 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>451</v>
+        <v>389</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>456</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>424</v>
+        <v>101</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9901,10 +9900,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9912,13 +9911,13 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
@@ -9927,24 +9926,22 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q68" t="s" s="2">
-        <v>461</v>
-      </c>
+      <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9988,16 +9985,16 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>462</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>100</v>
@@ -10006,7 +10003,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10020,10 +10017,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10031,7 +10028,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>87</v>
@@ -10046,26 +10043,22 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q69" t="s" s="2">
-        <v>468</v>
-      </c>
+      <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10085,13 +10078,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>80</v>
+        <v>444</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10109,16 +10102,16 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>462</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>100</v>
@@ -10127,7 +10120,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10141,10 +10134,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10152,7 +10145,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>87</v>
@@ -10167,20 +10160,16 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>206</v>
+        <v>446</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10204,13 +10193,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10228,16 +10217,16 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>100</v>
@@ -10246,7 +10235,7 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10260,10 +10249,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10286,16 +10275,16 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>476</v>
+        <v>110</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10321,13 +10310,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10345,7 +10334,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10354,7 +10343,7 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>100</v>
@@ -10363,7 +10352,7 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10372,15 +10361,15 @@
         <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10403,22 +10392,24 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>482</v>
+        <v>206</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="R72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10462,7 +10453,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10471,7 +10462,7 @@
         <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>100</v>
@@ -10480,7 +10471,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10494,10 +10485,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10508,7 +10499,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10520,22 +10511,26 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>375</v>
+        <v>206</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="R73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10579,16 +10574,16 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>100</v>
@@ -10597,7 +10592,7 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10611,10 +10606,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10637,16 +10632,20 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>265</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10694,7 +10693,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>267</v>
+        <v>470</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10703,16 +10702,16 @@
         <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>108</v>
+        <v>425</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10726,21 +10725,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -10752,16 +10751,16 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>477</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>136</v>
+        <v>478</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>138</v>
+        <v>480</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10799,90 +10798,88 @@
         <v>80</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>271</v>
+        <v>476</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>99</v>
+        <v>481</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>135</v>
+        <v>483</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>386</v>
+        <v>484</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>387</v>
+        <v>485</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -10930,25 +10927,25 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>99</v>
+        <v>487</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -10962,10 +10959,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10973,10 +10970,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -10988,16 +10985,16 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>495</v>
+        <v>376</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11023,13 +11020,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11047,16 +11044,16 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>99</v>
+        <v>487</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>100</v>
@@ -11065,7 +11062,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11079,10 +11076,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11105,24 +11102,20 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>500</v>
+        <v>261</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q78" t="s" s="2">
-        <v>503</v>
-      </c>
+      <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11166,7 +11159,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>499</v>
+        <v>263</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11175,16 +11168,16 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>424</v>
+        <v>108</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11198,14 +11191,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11224,20 +11217,18 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>375</v>
+        <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>505</v>
+        <v>136</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>506</v>
+        <v>265</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11273,19 +11264,19 @@
         <v>80</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>504</v>
+        <v>266</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11294,16 +11285,16 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>509</v>
+        <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>424</v>
+        <v>101</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11317,42 +11308,46 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>265</v>
+        <v>387</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11400,25 +11395,25 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11432,21 +11427,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -11458,16 +11453,16 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>135</v>
+        <v>496</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>136</v>
+        <v>497</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>270</v>
+        <v>498</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>138</v>
+        <v>499</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11493,49 +11488,49 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>271</v>
+        <v>495</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11549,50 +11544,50 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>386</v>
+        <v>501</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>387</v>
+        <v>502</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="R82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11636,25 +11631,25 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>388</v>
+        <v>500</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11668,10 +11663,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11679,10 +11674,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -11694,18 +11689,20 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>514</v>
+        <v>376</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11729,13 +11726,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -11753,16 +11750,16 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>99</v>
+        <v>510</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>100</v>
@@ -11771,7 +11768,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11785,10 +11782,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11799,7 +11796,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -11811,20 +11808,16 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>519</v>
+        <v>261</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -11872,38 +11865,510 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AG84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH84" t="s" s="2">
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI84" t="s" s="2">
+      <c r="H88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O88" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AJ84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL84" t="s" s="2">
+      <c r="P88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AM84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO84" t="s" s="2">
+      <c r="AJ88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO88" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO84">
+  <autoFilter ref="A1:AO88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11913,7 +12378,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T17:14:17+00:00</t>
+    <t>2024-04-02T09:13:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -805,7 +805,7 @@
 </t>
   </si>
   <si>
-    <t>Contexte d'usage de la fiche de consignes de saisie de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable ainsi que pottentiellemnt la spécialité ordinale et la profession</t>
+    <t>Contexte d'usage de la fiche de consignes de saisie de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable ainsi que potentiellemnt la spécialité ordinale et la profession</t>
   </si>
   <si>
     <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T09:13:36+00:00</t>
+    <t>2024-04-02T09:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T09:29:34+00:00</t>
+    <t>2024-04-02T10:08:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T10:08:21+00:00</t>
+    <t>2024-04-02T10:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -817,7 +817,7 @@
     <t>Assist in searching for appropriate content.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:useContext.code}
+    <t xml:space="preserve">pattern:useContext.code}
 </t>
   </si>
   <si>
@@ -2022,7 +2022,7 @@
     <col min="25" max="25" width="86.3125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="96.27734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="25.05859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="188.67578125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T10:29:34+00:00</t>
+    <t>2024-04-02T14:42:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-corrections-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:42:30+00:00</t>
+    <t>2024-04-02T15:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -817,7 +817,7 @@
     <t>Assist in searching for appropriate content.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:useContext.code}
+    <t xml:space="preserve">pattern:code}
 </t>
   </si>
   <si>
@@ -2022,7 +2022,7 @@
     <col min="25" max="25" width="86.3125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="96.27734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.05859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="188.67578125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
